--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Desktop\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Documents\GitHub\Solar-Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CC284-ED1E-4B15-AB4F-FF6FEC3F1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>PO Number</t>
   </si>
@@ -80,37 +80,19 @@
     <t>PO-002</t>
   </si>
   <si>
-    <t>XYZ Contractors</t>
-  </si>
-  <si>
     <t>Electrical Services</t>
   </si>
   <si>
-    <t>Invoiced</t>
-  </si>
-  <si>
     <t>PO-003</t>
   </si>
   <si>
-    <t>Global Logistics</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>Ordered</t>
-  </si>
-  <si>
     <t>PO-004</t>
   </si>
   <si>
-    <t>Tech Solutions</t>
-  </si>
-  <si>
     <t>IT Equipment</t>
-  </si>
-  <si>
-    <t>Paid</t>
   </si>
   <si>
     <t>PO-005</t>
@@ -510,7 +492,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>15000</v>
@@ -609,21 +591,21 @@
         <v>45350</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -638,21 +620,21 @@
         <v>45356</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>800</v>
@@ -667,12 +649,12 @@
         <v>45392</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -701,16 +683,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -725,21 +707,21 @@
         <v>45350</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>2000</v>
@@ -754,21 +736,21 @@
         <v>45356</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>800</v>
@@ -783,12 +765,12 @@
         <v>45392</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -817,16 +799,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>15000</v>
@@ -841,7 +823,7 @@
         <v>45350</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Documents\GitHub\Solar-Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EBFCB0-724F-4DDE-9B89-016B33702441}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,8 +501,8 @@
     <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -576,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>15000</v>
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>800</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -692,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -721,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>2000</v>
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>800</v>
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>15000</v>

--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EBFCB0-724F-4DDE-9B89-016B33702441}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD657A89-1731-45AE-A835-1339E643AD47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>PO Number</t>
   </si>
@@ -170,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47488D10-23DC-4E02-80D4-1E61BF387809}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,10 +551,10 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -576,10 +580,10 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>15000</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>15000</v>
@@ -605,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -634,10 +638,10 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>800</v>
+        <v>555</v>
       </c>
       <c r="F5">
         <v>16000</v>
@@ -663,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>5000</v>
@@ -692,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -724,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>10000</v>
@@ -753,7 +757,7 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>800</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>16000</v>
@@ -782,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>5000</v>
@@ -811,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>15000</v>
+        <v>444</v>
       </c>
       <c r="F11">
         <v>15000</v>
@@ -827,12 +831,294 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45261</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45275</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45301</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45350</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45337</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45356</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>555</v>
+      </c>
+      <c r="F15">
+        <v>16000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45371</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45392</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45261</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45275</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>15000</v>
+      </c>
+      <c r="F17">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45301</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45350</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45337</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45356</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>16000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45371</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45392</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45261</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45275</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>444</v>
+      </c>
+      <c r="F21">
+        <v>15000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45301</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45350</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD657A89-1731-45AE-A835-1339E643AD47}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023C1967-08E1-44AA-AD57-B335BD2A8769}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>PO-001</t>
   </si>
   <si>
-    <t>ABC Supplies</t>
-  </si>
-  <si>
     <t>Construction Materials</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>PO-010</t>
+  </si>
+  <si>
+    <t>Jinko</t>
   </si>
 </sst>
 </file>
@@ -170,10 +170,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +492,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -566,18 +562,18 @@
         <v>45275</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -595,18 +591,18 @@
         <v>45350</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -624,18 +620,18 @@
         <v>45356</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -653,18 +649,18 @@
         <v>45392</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -682,18 +678,18 @@
         <v>45275</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -711,18 +707,18 @@
         <v>45350</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -740,18 +736,18 @@
         <v>45356</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -769,18 +765,18 @@
         <v>45392</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -798,18 +794,18 @@
         <v>45275</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -827,7 +823,7 @@
         <v>45350</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -835,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -856,18 +852,18 @@
         <v>45275</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -885,18 +881,18 @@
         <v>45350</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -914,18 +910,18 @@
         <v>45356</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -943,18 +939,18 @@
         <v>45392</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -972,18 +968,18 @@
         <v>45275</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1001,18 +997,18 @@
         <v>45350</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1030,18 +1026,18 @@
         <v>45356</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -1059,18 +1055,18 @@
         <v>45392</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
         <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1088,18 +1084,18 @@
         <v>45275</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1117,7 +1113,7 @@
         <v>45350</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023C1967-08E1-44AA-AD57-B335BD2A8769}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F201906-84C2-4BC1-BB42-E682800312CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>PO Number</t>
   </si>
@@ -110,7 +110,25 @@
     <t>PO-010</t>
   </si>
   <si>
-    <t>Jinko</t>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>ABC Supplies</t>
+  </si>
+  <si>
+    <t>XYZ Contractors</t>
+  </si>
+  <si>
+    <t>Invoiced</t>
+  </si>
+  <si>
+    <t>Global Logistics</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Tech Solutions</t>
   </si>
 </sst>
 </file>
@@ -492,7 +510,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,16 +559,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -570,16 +588,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>77</v>
+        <v>15000</v>
       </c>
       <c r="F3">
         <v>15000</v>
@@ -591,7 +609,7 @@
         <v>45350</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -599,16 +617,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -620,7 +638,7 @@
         <v>45356</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -628,16 +646,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="F5">
         <v>16000</v>
@@ -649,7 +667,7 @@
         <v>45392</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -657,16 +675,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>5000</v>
@@ -686,13 +704,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -707,7 +725,7 @@
         <v>45350</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -715,16 +733,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="F8">
         <v>10000</v>
@@ -736,7 +754,7 @@
         <v>45356</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -744,16 +762,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>800</v>
       </c>
       <c r="F9">
         <v>16000</v>
@@ -765,7 +783,7 @@
         <v>45392</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -773,16 +791,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>5000</v>
@@ -802,16 +820,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>444</v>
+        <v>15000</v>
       </c>
       <c r="F11">
         <v>15000</v>
@@ -823,298 +841,48 @@
         <v>45350</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>89</v>
-      </c>
-      <c r="F12">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45261</v>
-      </c>
-      <c r="H12" s="1">
-        <v>45275</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>77</v>
-      </c>
-      <c r="F13">
-        <v>15000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45301</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45350</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>10000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45337</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45356</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>555</v>
-      </c>
-      <c r="F15">
-        <v>16000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>45371</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45392</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>67</v>
-      </c>
-      <c r="F16">
-        <v>5000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45261</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45275</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>15000</v>
-      </c>
-      <c r="F17">
-        <v>15000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>45301</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45350</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>10000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>45337</v>
-      </c>
-      <c r="H18" s="1">
-        <v>45356</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>54</v>
-      </c>
-      <c r="F19">
-        <v>16000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>45371</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45392</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>45261</v>
-      </c>
-      <c r="H20" s="1">
-        <v>45275</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>444</v>
-      </c>
-      <c r="F21">
-        <v>15000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>45301</v>
-      </c>
-      <c r="H21" s="1">
-        <v>45350</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Procurement.xlsx
+++ b/Procurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F201906-84C2-4BC1-BB42-E682800312CC}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{3AD2AA95-433A-4421-99F8-9DE9A9FF2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376A5623-D043-4149-9790-46566C361087}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{6551AA41-7915-4006-85AA-5C82BD879277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>PO Number</t>
   </si>
@@ -116,19 +116,10 @@
     <t>ABC Supplies</t>
   </si>
   <si>
-    <t>XYZ Contractors</t>
-  </si>
-  <si>
     <t>Invoiced</t>
   </si>
   <si>
-    <t>Global Logistics</t>
-  </si>
-  <si>
     <t>Ordered</t>
-  </si>
-  <si>
-    <t>Tech Solutions</t>
   </si>
 </sst>
 </file>
@@ -510,7 +501,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -609,7 +600,7 @@
         <v>45350</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -617,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -638,7 +629,7 @@
         <v>45356</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -646,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -704,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -725,7 +716,7 @@
         <v>45350</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -733,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -754,7 +745,7 @@
         <v>45356</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -820,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -841,7 +832,7 @@
         <v>45350</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
